--- a/biology/Zoologie/Faux_Apollon/Faux_Apollon.xlsx
+++ b/biology/Zoologie/Faux_Apollon/Faux_Apollon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Archon apollinus
 Le Faux Apollon (Archon apollinus) est une espèce de lépidoptères appartenant à la famille des Papilionidae et à la sous-famille des Parnassiinae. 
@@ -512,15 +524,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Faux Apollon est un papillon de taille moyenne dont l'envergure va de 25 à 30 mm. Les ailes sont en grande partie transparentes le fond jaune est plus présente sur l'aile postérieure. il exists 3 taches noires sur l'aile supérieure. L'aile postérieure est bordée de six taches rouge et bleu près de la marge.
 			♂ Face dorsale MHNT
 			♂ Face ventrale MHNT
 			♀ Face dorsale MHNT
 			♀ Face ventrale MHNT
-Chenille et chrysalide
-Les œufs, déposés de mars à mai, donnent des chenilles noires ornées de quatre taches rouges sur chaque segment ; elles forment des chrysalides en juillet.
 </t>
         </is>
       </c>
@@ -546,16 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-L'hivernation se fait au stade de chrysalide[1].
-La période de vol s'étend de janvier à mai, mi-mars mi-avril en Europe, une seule génération.
-Plantes hôtes
-Les plantes hôtes sont des aristoloches : Aristolochia hastata, Aristolochia poecilanta, Aristolochia scarabidula, Aristolochia parvifolia, Aristolochia clematitis[2].
+          <t>Chenille et chrysalide</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les œufs, déposés de mars à mai, donnent des chenilles noires ornées de quatre taches rouges sur chaque segment ; elles forment des chrysalides en juillet.
 </t>
         </is>
       </c>
@@ -581,14 +595,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Répartition et habitats</t>
+          <t>Biologie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Son aire de répartition comprend toute l'Asie occidentale, Turquie d'Europe et d'Asie, Syrie, Liban, Israël, Jordanie.
-En Europe, il est rare, en isolats vulnérables et uniquement présents de Grèce et de Bulgarie jusqu'à la mer Caspienne[2].
-L'espèce est inféodée aux terrains caillouteux jusqu'à 1500 mètres, principalement les olivettes et les vignobles[1].
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hivernation se fait au stade de chrysalide.
+La période de vol s'étend de janvier à mai, mi-mars mi-avril en Europe, une seule génération.
 </t>
         </is>
       </c>
@@ -614,23 +633,166 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes sont des aristoloches : Aristolochia hastata, Aristolochia poecilanta, Aristolochia scarabidula, Aristolochia parvifolia, Aristolochia clematitis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Faux_Apollon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faux_Apollon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Répartition et habitats</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son aire de répartition comprend toute l'Asie occidentale, Turquie d'Europe et d'Asie, Syrie, Liban, Israël, Jordanie.
+En Europe, il est rare, en isolats vulnérables et uniquement présents de Grèce et de Bulgarie jusqu'à la mer Caspienne.
+L'espèce est inféodée aux terrains caillouteux jusqu'à 1500 mètres, principalement les olivettes et les vignobles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Faux_Apollon</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faux_Apollon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Archon apollinus a été décrite par l'entomologiste allemand Johann Friedrich Wilhelm Herbst en 1789, sous le nom initial de Papilio apollinus[3].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Archon apollinus a été décrite par l'entomologiste allemand Johann Friedrich Wilhelm Herbst en 1789, sous le nom initial de Papilio apollinus.
 C'est l'espèce type pour le genre Archon.
-Synonymie
-Papilio apollinus Herbst, 1789 – protonyme
-Papilio pythius Esper, 1805[4]
-Papilio thia Hübner, 1805[5]
-Doritis apollinus var. krystallina Schilde, 1884[6]
-Doritis apollinus var. bellargus Staudinger, 1892[7]
-Doritis apollinus ab. rubra Staudinger, 1892[7]
-Doritis apollinus var. thracica Buresch, 1915[8]
-Liste des sous-espèces
-Archon apollinus amasina en Turquie à Amasya
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Faux_Apollon</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faux_Apollon</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Papilio apollinus Herbst, 1789 – protonyme
+Papilio pythius Esper, 1805
+Papilio thia Hübner, 1805
+Doritis apollinus var. krystallina Schilde, 1884
+Doritis apollinus var. bellargus Staudinger, 1892
+Doritis apollinus ab. rubra Staudinger, 1892
+Doritis apollinus var. thracica Buresch, 1915</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Faux_Apollon</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faux_Apollon</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Archon apollinus amasina en Turquie à Amasya
 Archon apollinus thracica (Buresch, 1915) en Turquie à Kuru Dagi
 Archon apollinus armeniaca (Sheljuzhko, 1925) en Turquie à Akbunuz
 Archon apollinus wyatti (Koçak, 1976) en Turquie à Isparta
@@ -646,33 +808,35 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Faux_Apollon</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Faux_Apollon</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Faux_Apollon</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faux_Apollon</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Faux Apollon se nomme False Apollo en anglais[2].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Faux Apollon se nomme False Apollo en anglais.
 </t>
         </is>
       </c>
